--- a/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_2/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>141.3883715704402</v>
+        <v>141.3883715704405</v>
       </c>
       <c r="H2" t="n">
         <v>120.8453578073962</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>101.828111257707</v>
+        <v>101.8281112577072</v>
       </c>
       <c r="H3" t="n">
-        <v>136.4700171005318</v>
+        <v>136.4700171005319</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>101.8079341309843</v>
+        <v>101.8079341309845</v>
       </c>
       <c r="H4" t="n">
-        <v>117.6829856455002</v>
+        <v>117.6829856455003</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>61.8622661223906</v>
+        <v>61.86226612239069</v>
       </c>
       <c r="H5" t="n">
-        <v>127.8647871429151</v>
+        <v>127.864787142915</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28.52819501536884</v>
+        <v>28.52819501536887</v>
       </c>
       <c r="H6" t="n">
-        <v>164.3745183917056</v>
+        <v>164.3745183917055</v>
       </c>
     </row>
     <row r="7">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>141.6574053195787</v>
+        <v>141.657405319579</v>
       </c>
       <c r="H7" t="n">
         <v>106.9759307236814</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>129.9216238550295</v>
+        <v>129.9216238550297</v>
       </c>
       <c r="H8" t="n">
         <v>100.7323073540351</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>121.3892259481625</v>
+        <v>121.3892259481626</v>
       </c>
       <c r="H9" t="n">
-        <v>95.70419967010325</v>
+        <v>95.70419967010339</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>101.7881914604699</v>
+        <v>101.78819146047</v>
       </c>
       <c r="H10" t="n">
-        <v>93.66102961643445</v>
+        <v>93.6610296164346</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>82.02591975198554</v>
+        <v>82.02591975198561</v>
       </c>
       <c r="H11" t="n">
-        <v>91.57368570080759</v>
+        <v>91.5736857008075</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>81.92346295386962</v>
+        <v>81.92346295386969</v>
       </c>
       <c r="H12" t="n">
-        <v>87.9459013403016</v>
+        <v>87.94590134030152</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>141.8038239725599</v>
+        <v>141.8038239725602</v>
       </c>
       <c r="H13" t="n">
-        <v>94.00953516132741</v>
+        <v>94.00953516132746</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>141.2100026694243</v>
+        <v>141.2100026694246</v>
       </c>
       <c r="H14" t="n">
-        <v>97.27028461468741</v>
+        <v>97.27028461468747</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>119.9097320794133</v>
+        <v>119.9097320794135</v>
       </c>
       <c r="H15" t="n">
-        <v>97.58481774568105</v>
+        <v>97.58481774568119</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>101.6707466373233</v>
+        <v>101.6707466373234</v>
       </c>
       <c r="H16" t="n">
-        <v>93.29087415882354</v>
+        <v>93.29087415882368</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>68.9199619415464</v>
+        <v>68.91996194154649</v>
       </c>
       <c r="H17" t="n">
-        <v>101.383745817607</v>
+        <v>101.3837458176069</v>
       </c>
     </row>
     <row r="18">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>31.34478077712192</v>
+        <v>31.34478077712203</v>
       </c>
       <c r="H18" t="n">
         <v>125.8794426911979</v>
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>141.0107643300297</v>
+        <v>141.01076433003</v>
       </c>
       <c r="H19" t="n">
-        <v>106.3056026956063</v>
+        <v>106.3056026956064</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>141.8022438574737</v>
+        <v>141.8022438574739</v>
       </c>
       <c r="H20" t="n">
-        <v>119.740483120727</v>
+        <v>119.7404831207271</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>121.8223733099052</v>
+        <v>121.8223733099054</v>
       </c>
       <c r="H21" t="n">
-        <v>118.164524943731</v>
+        <v>118.1645249437311</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>96.61423361150119</v>
+        <v>96.61423361150135</v>
       </c>
       <c r="H22" t="n">
-        <v>120.8935884883918</v>
+        <v>120.8935884883919</v>
       </c>
     </row>
     <row r="23">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>31.44966555532528</v>
+        <v>31.44966555532539</v>
       </c>
       <c r="H23" t="n">
         <v>137.6566748000317</v>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>90.4629360828098</v>
+        <v>90.46293608280946</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0881651738195</v>
+        <v>104.0881651738193</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>121.3404794197499</v>
+        <v>121.34047941975</v>
       </c>
       <c r="H25" t="n">
-        <v>107.7756321959951</v>
+        <v>107.7756321959952</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>131.3054996038278</v>
+        <v>131.305499603828</v>
       </c>
       <c r="H26" t="n">
-        <v>103.8796643773525</v>
+        <v>103.8796643773527</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>111.589521684751</v>
+        <v>111.5895216847512</v>
       </c>
       <c r="H29" t="n">
-        <v>91.69984815735913</v>
+        <v>91.69984815735928</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>111.739093641511</v>
+        <v>111.7390936415112</v>
       </c>
       <c r="H30" t="n">
-        <v>92.15003460218009</v>
+        <v>92.15003460218023</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>78.54444627922277</v>
+        <v>78.544446279223</v>
       </c>
       <c r="H31" t="n">
-        <v>145.3060593720079</v>
+        <v>145.306059372008</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>96.62724127922608</v>
+        <v>96.62724127922574</v>
       </c>
       <c r="H33" t="n">
-        <v>100.5587269930386</v>
+        <v>100.5587269930383</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>96.71471089734166</v>
+        <v>96.71471089734131</v>
       </c>
       <c r="H34" t="n">
-        <v>90.19066387490784</v>
+        <v>90.19066387490754</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>131.3718187637125</v>
+        <v>131.3718187637126</v>
       </c>
       <c r="H36" t="n">
-        <v>94.20145880957183</v>
+        <v>94.20145880957197</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>96.68954035761695</v>
+        <v>96.68954035761659</v>
       </c>
       <c r="H37" t="n">
-        <v>90.13863411167374</v>
+        <v>90.13863411167344</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>111.6975846899791</v>
+        <v>111.6975846899793</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5120931659002</v>
+        <v>109.5120931659003</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>106.6222979297012</v>
+        <v>106.6222979297011</v>
       </c>
       <c r="H40" t="n">
-        <v>103.021513115243</v>
+        <v>103.0215131152428</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>111.7559098543404</v>
+        <v>111.7559098543406</v>
       </c>
       <c r="H42" t="n">
-        <v>99.72390946830176</v>
+        <v>99.7239094683019</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>97.05893248581614</v>
+        <v>97.05893248581579</v>
       </c>
       <c r="H44" t="n">
-        <v>110.0096561998241</v>
+        <v>110.0096561998239</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>111.891478580991</v>
+        <v>111.8914785809912</v>
       </c>
       <c r="H47" t="n">
-        <v>97.0907823925512</v>
+        <v>97.09078239255135</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>131.7700611968471</v>
+        <v>131.7700611968472</v>
       </c>
       <c r="H49" t="n">
-        <v>94.2793104877227</v>
+        <v>94.27931048772284</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>93.94703014284251</v>
+        <v>93.94703014284215</v>
       </c>
       <c r="H50" t="n">
-        <v>123.7189439192302</v>
+        <v>123.71894391923</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>81.09873402848267</v>
+        <v>81.09873402848285</v>
       </c>
       <c r="H51" t="n">
-        <v>145.8330421996854</v>
+        <v>145.8330421996855</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>145.6769501739424</v>
+        <v>145.6769501739422</v>
       </c>
       <c r="H52" t="n">
-        <v>93.19363624169196</v>
+        <v>93.19363624169189</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>126.2372925009472</v>
+        <v>126.2372925009468</v>
       </c>
       <c r="H53" t="n">
-        <v>92.07529074097556</v>
+        <v>92.0752907409754</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>106.267961037522</v>
+        <v>106.2679610375221</v>
       </c>
       <c r="H54" t="n">
-        <v>91.15380850520624</v>
+        <v>91.15380850520633</v>
       </c>
     </row>
     <row r="55">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>81.58367830152058</v>
+        <v>81.58367830152038</v>
       </c>
       <c r="H57" t="n">
-        <v>97.00823213955242</v>
+        <v>97.00823213955233</v>
       </c>
     </row>
     <row r="58">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>146.375632548056</v>
+        <v>146.3756325480558</v>
       </c>
       <c r="H58" t="n">
-        <v>59.85325946156257</v>
+        <v>59.85325946156244</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>126.2202838214705</v>
+        <v>126.2202838214701</v>
       </c>
       <c r="H59" t="n">
-        <v>58.37730807801185</v>
+        <v>58.37730807801159</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>106.5673393930897</v>
+        <v>106.5673393930899</v>
       </c>
       <c r="H60" t="n">
-        <v>56.74044500145798</v>
+        <v>56.74044500145811</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>121.700213592588</v>
+        <v>121.7002135925878</v>
       </c>
       <c r="H63" t="n">
-        <v>61.40944302937837</v>
+        <v>61.40944302937823</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>146.5289154887347</v>
+        <v>146.5289154887345</v>
       </c>
       <c r="H64" t="n">
-        <v>59.2427848763178</v>
+        <v>59.24278487631767</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>126.557126546877</v>
+        <v>126.5571265468767</v>
       </c>
       <c r="H65" t="n">
-        <v>57.6435127743532</v>
+        <v>57.64351277435294</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>106.4101542925028</v>
+        <v>106.410154292503</v>
       </c>
       <c r="H66" t="n">
-        <v>56.13785392401231</v>
+        <v>56.13785392401245</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>114.7963731981828</v>
+        <v>114.7963731981826</v>
       </c>
       <c r="H69" t="n">
-        <v>80.26342597320318</v>
+        <v>80.26342597320308</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>142.296351278153</v>
+        <v>142.2963512781529</v>
       </c>
       <c r="H70" t="n">
-        <v>92.41196384105798</v>
+        <v>92.4119638410579</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>124.6484536699042</v>
+        <v>124.6484536699038</v>
       </c>
       <c r="H71" t="n">
-        <v>91.08948522686426</v>
+        <v>91.08948522686408</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>106.3706581248423</v>
+        <v>106.3706581248424</v>
       </c>
       <c r="H72" t="n">
-        <v>89.80180430806449</v>
+        <v>89.80180430806458</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>116.1051799296436</v>
+        <v>116.1051799296439</v>
       </c>
       <c r="H74" t="n">
-        <v>53.41017959902737</v>
+        <v>53.41017959902764</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>92.42797171309662</v>
+        <v>92.4279717130968</v>
       </c>
       <c r="H75" t="n">
-        <v>98.55724852449568</v>
+        <v>98.55724852449575</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>95.74161996594965</v>
+        <v>95.7416199659496</v>
       </c>
       <c r="H76" t="n">
-        <v>142.340445996573</v>
+        <v>142.3404459965727</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>90.89934090012801</v>
+        <v>90.89934090012838</v>
       </c>
       <c r="H77" t="n">
-        <v>104.1051339011446</v>
+        <v>104.1051339011448</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>126.0708196099698</v>
+        <v>126.0708196099694</v>
       </c>
       <c r="H78" t="n">
-        <v>80.23490305029698</v>
+        <v>80.23490305029679</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>101.1263753847813</v>
+        <v>101.1263753847811</v>
       </c>
       <c r="H79" t="n">
-        <v>78.9301659517004</v>
+        <v>78.93016595170032</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>116.4498641054585</v>
+        <v>116.4498641054589</v>
       </c>
       <c r="H80" t="n">
-        <v>68.89647581636096</v>
+        <v>68.89647581636119</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>111.4131360134575</v>
+        <v>111.4131360134573</v>
       </c>
       <c r="H81" t="n">
-        <v>62.45193529262254</v>
+        <v>62.45193529262242</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>81.56594249595727</v>
+        <v>81.56594249595744</v>
       </c>
       <c r="H82" t="n">
-        <v>55.84659591335726</v>
+        <v>55.8465959133574</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>96.53782806051758</v>
+        <v>96.53782806051777</v>
       </c>
       <c r="H83" t="n">
-        <v>64.28761623859481</v>
+        <v>64.28761623859492</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>129.3068730317208</v>
+        <v>129.3068730317205</v>
       </c>
       <c r="H85" t="n">
-        <v>82.51722747815461</v>
+        <v>82.51722747815435</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>116.7232190526909</v>
+        <v>116.7232190526913</v>
       </c>
       <c r="H86" t="n">
-        <v>83.4436342083673</v>
+        <v>83.44363420836748</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>126.0817597286795</v>
+        <v>126.0817597286791</v>
       </c>
       <c r="H88" t="n">
-        <v>52.32085587801397</v>
+        <v>52.32085587801368</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>93.4476686349995</v>
+        <v>93.44766863499967</v>
       </c>
       <c r="H90" t="n">
-        <v>56.40178400533772</v>
+        <v>56.40178400533787</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>135.944798107402</v>
+        <v>135.9447981074017</v>
       </c>
       <c r="H91" t="n">
-        <v>55.66020861677693</v>
+        <v>55.66020861677657</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>106.3229256230893</v>
+        <v>106.3229256230894</v>
       </c>
       <c r="H92" t="n">
-        <v>52.62446993101629</v>
+        <v>52.62446993101643</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>111.3303908729411</v>
+        <v>111.3303908729409</v>
       </c>
       <c r="H93" t="n">
-        <v>51.0063184831135</v>
+        <v>51.00631848311336</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>101.2749895282768</v>
+        <v>101.2749895282766</v>
       </c>
       <c r="H94" t="n">
-        <v>73.83611805218233</v>
+        <v>73.83611805218224</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>133.0419320599518</v>
+        <v>133.0419320599515</v>
       </c>
       <c r="H95" t="n">
-        <v>80.12264451661272</v>
+        <v>80.12264451661247</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>116.6518834164904</v>
+        <v>116.6518834164908</v>
       </c>
       <c r="H96" t="n">
-        <v>82.23211239583991</v>
+        <v>82.23211239584009</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>94.26573168172318</v>
+        <v>94.26573168172335</v>
       </c>
       <c r="H97" t="n">
-        <v>61.14817734013796</v>
+        <v>61.1481773401381</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>90.09041971671012</v>
+        <v>90.09041971671004</v>
       </c>
       <c r="H99" t="n">
-        <v>117.0764053416676</v>
+        <v>117.0764053416672</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>116.2758341086502</v>
+        <v>116.2758341086506</v>
       </c>
       <c r="H100" t="n">
-        <v>71.15461748039523</v>
+        <v>71.15461748039544</v>
       </c>
     </row>
     <row r="101">
